--- a/2019春软工嵌入式1班分组名单.xlsx
+++ b/2019春软工嵌入式1班分组名单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13307\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\北京航空航天大学\助教\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADC050A-C797-4288-81E9-9D3EF8B1A562}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC11C9C-DA1F-4F44-9C9E-4D5BF85A544A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>团队名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨枫 16061042 xxx69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>柴林政 16061079 Challenging6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,6 +344,14 @@
   </si>
   <si>
     <t>母江涛 16231173 Mujt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩继开 16061089 kazr97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨枫 16061042 16061042</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +496,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -854,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -877,23 +881,23 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="16.5">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>16061018</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>64</v>
+      <c r="F3" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>21</v>
@@ -919,12 +923,12 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
@@ -950,12 +954,12 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="16.5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
@@ -981,13 +985,15 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="16.5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
@@ -1010,23 +1016,23 @@
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>16061062</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>65</v>
+      <c r="F7" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>25</v>
@@ -1052,12 +1058,12 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="8" t="s">
         <v>26</v>
       </c>
@@ -1083,12 +1089,12 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1114,12 +1120,12 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="16.5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
       <c r="I10" s="1"/>
@@ -1143,23 +1149,23 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="16.5">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>16061160</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>66</v>
+      <c r="F11" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>30</v>
@@ -1184,12 +1190,12 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="16.5">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1215,12 +1221,12 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="16.5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="8" t="s">
         <v>31</v>
       </c>
@@ -1246,12 +1252,12 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="16.5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="8" t="s">
         <v>32</v>
       </c>
@@ -1277,23 +1283,23 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="16.5">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>4</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>76066001</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>67</v>
+      <c r="F15" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>35</v>
@@ -1318,12 +1324,12 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="16.5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="8" t="s">
         <v>36</v>
       </c>
@@ -1349,12 +1355,12 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="16.5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="8" t="s">
         <v>37</v>
       </c>
@@ -1380,12 +1386,12 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="16.5">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="9" t="s">
         <v>38</v>
       </c>
@@ -1411,23 +1417,23 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="16.5">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>16231275</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>68</v>
+      <c r="F19" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>41</v>
@@ -1452,12 +1458,12 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="16.5">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="8" t="s">
         <v>1</v>
       </c>
@@ -1483,12 +1489,12 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="16.5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="8" t="s">
         <v>2</v>
       </c>
@@ -1514,12 +1520,12 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="16.5">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="8" t="s">
         <v>42</v>
       </c>
@@ -1545,23 +1551,23 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="16.5">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>6</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>16061016</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>69</v>
+      <c r="F23" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>44</v>
@@ -1586,12 +1592,12 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="16.5">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="8" t="s">
         <v>45</v>
       </c>
@@ -1617,12 +1623,12 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="16.5">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="8" t="s">
         <v>3</v>
       </c>
@@ -1648,12 +1654,12 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="16.5">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="8" t="s">
         <v>46</v>
       </c>
@@ -1679,26 +1685,26 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" ht="16.5">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>7</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>74</v>
+      <c r="B27" s="13" t="s">
+        <v>73</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>16061073</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>73</v>
+      <c r="F27" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="2"/>
@@ -1722,14 +1728,14 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" ht="16.5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="2"/>
@@ -1753,14 +1759,14 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" ht="16.5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="2"/>
@@ -1784,12 +1790,12 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" ht="16.5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="8"/>
       <c r="H30" s="12"/>
       <c r="I30" s="2"/>
@@ -1813,23 +1819,23 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" ht="16.5">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>8</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>16231183</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>70</v>
+      <c r="F31" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>9</v>
@@ -1855,12 +1861,12 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" ht="16.5">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="8" t="s">
         <v>10</v>
       </c>
@@ -1886,14 +1892,14 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" ht="16.5">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="4"/>
@@ -1917,12 +1923,12 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" ht="16.5">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7"/>
       <c r="I34" s="4"/>
@@ -1946,26 +1952,26 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" ht="16.5">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>9</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>16061074</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>71</v>
+      <c r="F35" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H35" s="11"/>
       <c r="K35" s="2"/>
@@ -1987,14 +1993,14 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" ht="16.5">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="3"/>
@@ -2018,14 +2024,14 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="1:27" ht="16.5">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="3"/>
@@ -2049,14 +2055,14 @@
       <c r="AA37" s="2"/>
     </row>
     <row r="38" spans="1:27" ht="16.5">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="3"/>
@@ -2080,26 +2086,26 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="1:27" ht="16.5">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>10</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>16061172</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>72</v>
+      <c r="F39" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="11"/>
       <c r="K39" s="2"/>
@@ -2121,12 +2127,12 @@
       <c r="AA39" s="2"/>
     </row>
     <row r="40" spans="1:27" ht="16.5">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="8" t="s">
         <v>6</v>
       </c>
@@ -2152,14 +2158,14 @@
       <c r="AA40" s="2"/>
     </row>
     <row r="41" spans="1:27" ht="16.5">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="1"/>
@@ -2183,14 +2189,14 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42" spans="1:27" ht="16.5">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="1"/>
@@ -7696,6 +7702,52 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="C31:C34"/>
@@ -7711,52 +7763,6 @@
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="E39:E42"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019春软工嵌入式1班分组名单.xlsx
+++ b/2019春软工嵌入式1班分组名单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\北京航空航天大学\助教\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC11C9C-DA1F-4F44-9C9E-4D5BF85A544A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93DF85E-F945-4D08-A5A3-262876224FDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>团队名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,14 @@
   <si>
     <t>杨枫 16061042 16061042</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁夏宇 16061054 16061054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵振宁 15061130 zzn06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -808,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1126,7 +1134,9 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
@@ -1796,7 +1806,9 @@
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
